--- a/EconModel/Australian Federal Economic Data.xlsx
+++ b/EconModel/Australian Federal Economic Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Desktop\Projects\Project Epagogi\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA395D30-E769-424B-9DFB-F428B4E0BC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67773AB9-9DE8-44A0-A90E-29F5824DD949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{FF0115FD-6D54-4EA2-B779-DCDF1E34D0AD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Election date</t>
   </si>
@@ -130,12 +130,6 @@
     <t>Inflation from last quarter</t>
   </si>
   <si>
-    <t>Economic Index 1</t>
-  </si>
-  <si>
-    <t>Economic Index 2</t>
-  </si>
-  <si>
     <t>Final-quarter household disposable income</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
   </si>
   <si>
     <t>Whole-term household disposable income</t>
-  </si>
-  <si>
-    <t>Economic Index 3</t>
   </si>
   <si>
     <t>Household disposable income</t>
@@ -446,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C155D6A5-AB52-4485-8B0A-049A065E1F10}">
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -469,7 +460,7 @@
     <col min="26" max="16384" width="10.62890625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -501,7 +492,7 @@
         <v>20</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>14</v>
@@ -519,7 +510,7 @@
         <v>22</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>24</v>
@@ -537,7 +528,7 @@
         <v>28</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>30</v>
@@ -545,17 +536,8 @@
       <c r="Y1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="2" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -653,7 +635,7 @@
         <v>0.1013</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>21511</v>
       </c>
@@ -661,7 +643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A4" s="5">
         <v>22624</v>
       </c>
@@ -760,20 +742,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A4,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A4,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="4" t="str">
-        <f>IF(ISNUMBER($F4),ROUND((AVERAGE($F$4:$F$26)-$F4)/_xlfn.STDEV.S($F$4:$F$26),2),"")</f>
-        <v/>
-      </c>
-      <c r="AB4" s="4" t="str">
-        <f>IF(ISNUMBER($R4),ROUND(($R4-AVERAGE($R$4:$R$26))/_xlfn.STDEV.S($R$4:$R$26),2),"")</f>
-        <v/>
-      </c>
-      <c r="AC4" s="4">
-        <f>IF(ISNUMBER($Q4),ROUND(($Q4-AVERAGE($Q$4:$Q$26))/_xlfn.STDEV.S($Q$4:$Q$26),2),"")</f>
-        <v>-1.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A5" s="5">
         <v>23345</v>
       </c>
@@ -872,20 +842,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A5,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A5,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>1.3</v>
       </c>
-      <c r="AA5" s="4" t="str">
-        <f t="shared" ref="AA5:AA26" si="1">IF(ISNUMBER($F5),ROUND((AVERAGE($F$4:$F$26)-$F5)/_xlfn.STDEV.S($F$4:$F$26),2),"")</f>
-        <v/>
-      </c>
-      <c r="AB5" s="4">
-        <f t="shared" ref="AB5:AB26" si="2">IF(ISNUMBER($R5),ROUND(($R5-AVERAGE($R$4:$R$26))/_xlfn.STDEV.S($R$4:$R$26),2),"")</f>
-        <v>1.81</v>
-      </c>
-      <c r="AC5" s="4">
-        <f t="shared" ref="AC5:AC26" si="3">IF(ISNUMBER($Q5),ROUND(($Q5-AVERAGE($Q$4:$Q$26))/_xlfn.STDEV.S($Q$4:$Q$26),2),"")</f>
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A6" s="5">
         <v>24437</v>
       </c>
@@ -983,20 +941,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A6,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A6,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.34</v>
-      </c>
-      <c r="AB6" s="4">
-        <f t="shared" si="2"/>
-        <v>0.86</v>
-      </c>
-      <c r="AC6" s="4">
-        <f t="shared" si="3"/>
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A7" s="5">
         <v>25501</v>
       </c>
@@ -1095,20 +1041,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A7,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A7,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.34</v>
-      </c>
-      <c r="AB7" s="4">
-        <f t="shared" si="2"/>
-        <v>1.87</v>
-      </c>
-      <c r="AC7" s="4">
-        <f t="shared" si="3"/>
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A8" s="5">
         <v>26635</v>
       </c>
@@ -1207,20 +1141,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A8,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A8,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>0.9</v>
       </c>
-      <c r="AA8" s="4">
-        <f t="shared" si="1"/>
-        <v>0.34</v>
-      </c>
-      <c r="AB8" s="4">
-        <f t="shared" si="2"/>
-        <v>0.42</v>
-      </c>
-      <c r="AC8" s="4">
-        <f t="shared" si="3"/>
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A9" s="5">
         <v>27167</v>
       </c>
@@ -1319,20 +1241,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A9,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A9,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>3.2</v>
       </c>
-      <c r="AA9" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.02</v>
-      </c>
-      <c r="AB9" s="4">
-        <f t="shared" si="2"/>
-        <v>0.49</v>
-      </c>
-      <c r="AC9" s="4">
-        <f t="shared" si="3"/>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A10" s="5">
         <v>27741</v>
       </c>
@@ -1431,20 +1341,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A10,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A10,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>5.7</v>
       </c>
-      <c r="AA10" s="4">
-        <f t="shared" si="1"/>
-        <v>-2.52</v>
-      </c>
-      <c r="AB10" s="4">
-        <f t="shared" si="2"/>
-        <v>-2.14</v>
-      </c>
-      <c r="AC10" s="4">
-        <f t="shared" si="3"/>
-        <v>-2.21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A11" s="5">
         <v>28469</v>
       </c>
@@ -1543,20 +1441,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A11,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A11,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>2.4</v>
       </c>
-      <c r="AA11" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.38</v>
-      </c>
-      <c r="AB11" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.17</v>
-      </c>
-      <c r="AC11" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A12" s="5">
         <v>29512</v>
       </c>
@@ -1655,20 +1541,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A12,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A12,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>1.5</v>
       </c>
-      <c r="AA12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.62</v>
-      </c>
-      <c r="AB12" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.19</v>
-      </c>
-      <c r="AC12" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A13" s="5">
         <v>30380</v>
       </c>
@@ -1767,20 +1641,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A13,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A13,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>2.1</v>
       </c>
-      <c r="AA13" s="4">
-        <f t="shared" si="1"/>
-        <v>-1.98</v>
-      </c>
-      <c r="AB13" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.67</v>
-      </c>
-      <c r="AC13" s="4">
-        <f t="shared" si="3"/>
-        <v>-1.39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A14" s="5">
         <v>31017</v>
       </c>
@@ -1879,20 +1741,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A14,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A14,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>1.4</v>
       </c>
-      <c r="AA14" s="4">
-        <f t="shared" si="1"/>
-        <v>0.73</v>
-      </c>
-      <c r="AB14" s="4">
-        <f t="shared" si="2"/>
-        <v>1.21</v>
-      </c>
-      <c r="AC14" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A15" s="5">
         <v>31969</v>
       </c>
@@ -1991,20 +1841,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A15,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A15,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>1.5</v>
       </c>
-      <c r="AA15" s="4">
-        <f t="shared" si="1"/>
-        <v>1.48</v>
-      </c>
-      <c r="AB15" s="4">
-        <f t="shared" si="2"/>
-        <v>0.17</v>
-      </c>
-      <c r="AC15" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A16" s="5">
         <v>32956</v>
       </c>
@@ -2103,20 +1941,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A16,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A16,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>1.8</v>
       </c>
-      <c r="AA16" s="4">
-        <f t="shared" si="1"/>
-        <v>-1.23</v>
-      </c>
-      <c r="AB16" s="4">
-        <f t="shared" si="2"/>
-        <v>0.46</v>
-      </c>
-      <c r="AC16" s="4">
-        <f t="shared" si="3"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A17" s="5">
         <v>34041</v>
       </c>
@@ -2215,20 +2041,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A17,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A17,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>0.8</v>
       </c>
-      <c r="AA17" s="4">
-        <f t="shared" si="1"/>
-        <v>1.26</v>
-      </c>
-      <c r="AB17" s="4">
-        <f t="shared" si="2"/>
-        <v>-1.28</v>
-      </c>
-      <c r="AC17" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A18" s="5">
         <v>35126</v>
       </c>
@@ -2327,20 +2141,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A18,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A18,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>0.3</v>
       </c>
-      <c r="AA18" s="4">
-        <f t="shared" si="1"/>
-        <v>-1.02</v>
-      </c>
-      <c r="AB18" s="4">
-        <f t="shared" si="2"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AC18" s="4">
-        <f t="shared" si="3"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A19" s="5">
         <v>36071</v>
       </c>
@@ -2439,20 +2241,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A19,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A19,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>0.1</v>
       </c>
-      <c r="AA19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.69</v>
-      </c>
-      <c r="AB19" s="4">
-        <f t="shared" si="2"/>
-        <v>0.54</v>
-      </c>
-      <c r="AC19" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A20" s="5">
         <v>37205</v>
       </c>
@@ -2551,20 +2341,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A20,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A20,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>0.3</v>
       </c>
-      <c r="AA20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="AB20" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.22</v>
-      </c>
-      <c r="AC20" s="4">
-        <f t="shared" si="3"/>
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A21" s="5">
         <v>38269</v>
       </c>
@@ -2663,20 +2441,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A21,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A21,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>0.4</v>
       </c>
-      <c r="AA21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="AB21" s="4">
-        <f t="shared" si="2"/>
-        <v>0.16</v>
-      </c>
-      <c r="AC21" s="4">
-        <f t="shared" si="3"/>
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A22" s="5">
         <v>39410</v>
       </c>
@@ -2775,20 +2541,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A22,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A22,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>0.7</v>
       </c>
-      <c r="AA22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.37</v>
-      </c>
-      <c r="AB22" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.1</v>
-      </c>
-      <c r="AC22" s="4">
-        <f t="shared" si="3"/>
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A23" s="5">
         <v>40411</v>
       </c>
@@ -2887,20 +2641,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A23,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A23,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>0.6</v>
       </c>
-      <c r="AA23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.98</v>
-      </c>
-      <c r="AB23" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.87</v>
-      </c>
-      <c r="AC23" s="4">
-        <f t="shared" si="3"/>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A24" s="5">
         <v>41524</v>
       </c>
@@ -2999,20 +2741,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A24,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A24,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>1.2</v>
       </c>
-      <c r="AA24" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.06</v>
-      </c>
-      <c r="AB24" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.22</v>
-      </c>
-      <c r="AC24" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A25" s="5">
         <v>42553</v>
       </c>
@@ -3111,20 +2841,8 @@
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A25,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A25,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>0.4</v>
       </c>
-      <c r="AA25" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.02</v>
-      </c>
-      <c r="AB25" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.6</v>
-      </c>
-      <c r="AC25" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.6">
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.6">
       <c r="A26" s="5">
         <v>43603</v>
       </c>
@@ -3222,18 +2940,6 @@
       <c r="Y26" s="4">
         <f>IF(ISNUMBER(INDEX('Economic Data'!J:J,MATCH($A26,'Economic Data'!$A:$A,1))),ROUND(INDEX('Economic Data'!J:J,MATCH($A26,'Economic Data'!$A:$A,1)),4),"")</f>
         <v>0</v>
-      </c>
-      <c r="AA26" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.52</v>
-      </c>
-      <c r="AB26" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.82</v>
-      </c>
-      <c r="AC26" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -3258,7 +2964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6FDDAE-3EC3-484C-91C2-0D6809BFC9B8}">
   <dimension ref="A1:V568"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.62890625" defaultRowHeight="16" x14ac:dyDescent="0.6"/>
   <cols>
@@ -3304,7 +3012,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>30</v>
@@ -4314,7 +4022,7 @@
         <v>1.3</v>
       </c>
       <c r="O20" s="2">
-        <v>25600</v>
+        <v>25965</v>
       </c>
       <c r="P20" s="3">
         <v>1.7</v>
@@ -4367,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>25689</v>
+        <v>26054</v>
       </c>
       <c r="P21" s="3">
         <v>1.9</v>
@@ -4420,7 +4128,7 @@
         <v>1.3</v>
       </c>
       <c r="O22" s="2">
-        <v>25781</v>
+        <v>26146</v>
       </c>
       <c r="P22" s="3">
         <v>1.9</v>
@@ -4473,7 +4181,7 @@
         <v>1.2</v>
       </c>
       <c r="O23" s="2">
-        <v>25873</v>
+        <v>26238</v>
       </c>
       <c r="P23" s="3">
         <v>2.2000000000000002</v>
@@ -4650,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A27" s="2">
         <v>24077</v>
       </c>
@@ -4703,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A28" s="2">
         <v>24167</v>
       </c>
@@ -4756,7 +4464,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A29" s="2">
         <v>24259</v>
       </c>
@@ -4809,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A30" s="2">
         <v>24351</v>
       </c>
@@ -4862,7 +4570,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A31" s="2">
         <v>24442</v>
       </c>
@@ -4915,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A32" s="2">
         <v>24532</v>
       </c>
@@ -4968,7 +4676,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A33" s="2">
         <v>24624</v>
       </c>
@@ -5021,7 +4729,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A34" s="2">
         <v>24716</v>
       </c>
@@ -5074,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A35" s="2">
         <v>24807</v>
       </c>
@@ -5127,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A36" s="2">
         <v>24898</v>
       </c>
@@ -5180,7 +4888,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A37" s="2">
         <v>24990</v>
       </c>
@@ -5233,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A38" s="2">
         <v>25082</v>
       </c>
@@ -5286,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A39" s="2">
         <v>25173</v>
       </c>
@@ -5339,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A40" s="2">
         <v>25263</v>
       </c>
@@ -5392,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A41" s="2">
         <v>25355</v>
       </c>
@@ -5445,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A42" s="2">
         <v>25447</v>
       </c>
@@ -5498,7 +5206,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A43" s="2">
         <v>25538</v>
       </c>
@@ -5551,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A44" s="2">
         <v>25628</v>
       </c>
@@ -5564,11 +5272,11 @@
       </c>
       <c r="E44" s="4">
         <f t="shared" si="2"/>
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" si="0"/>
-        <v>61.4</v>
+        <v>61</v>
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5604,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A45" s="2">
         <v>25720</v>
       </c>
@@ -5617,11 +5325,11 @@
       </c>
       <c r="E45" s="4">
         <f t="shared" si="2"/>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" si="0"/>
-        <v>61.8</v>
+        <v>61.4</v>
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5657,7 +5365,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A46" s="2">
         <v>25812</v>
       </c>
@@ -5670,11 +5378,11 @@
       </c>
       <c r="E46" s="4">
         <f t="shared" si="2"/>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="F46" s="4">
         <f t="shared" si="0"/>
-        <v>61.3</v>
+        <v>61.5</v>
       </c>
       <c r="G46" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5710,7 +5418,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A47" s="2">
         <v>25903</v>
       </c>
@@ -5723,11 +5431,11 @@
       </c>
       <c r="E47" s="4">
         <f t="shared" si="2"/>
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" si="0"/>
-        <v>61.1</v>
+        <v>61.5</v>
       </c>
       <c r="G47" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5763,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A48" s="2">
         <v>25993</v>
       </c>
@@ -5776,11 +5484,11 @@
       </c>
       <c r="E48" s="4">
         <f t="shared" si="2"/>
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="F48" s="4">
         <f t="shared" si="0"/>
-        <v>61.1</v>
+        <v>61.4</v>
       </c>
       <c r="G48" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5819,7 +5527,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A49" s="2">
         <v>26085</v>
       </c>
@@ -5832,11 +5540,11 @@
       </c>
       <c r="E49" s="4">
         <f t="shared" si="2"/>
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="F49" s="4">
         <f t="shared" si="0"/>
-        <v>61.1</v>
+        <v>61.8</v>
       </c>
       <c r="G49" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5875,7 +5583,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A50" s="2">
         <v>26177</v>
       </c>
@@ -5888,11 +5596,11 @@
       </c>
       <c r="E50" s="4">
         <f t="shared" si="2"/>
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="F50" s="4">
         <f t="shared" si="0"/>
-        <v>61.1</v>
+        <v>61.3</v>
       </c>
       <c r="G50" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5931,7 +5639,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A51" s="2">
         <v>26268</v>
       </c>
@@ -5987,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A52" s="2">
         <v>26359</v>
       </c>
@@ -6043,7 +5751,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A53" s="2">
         <v>26451</v>
       </c>
@@ -6099,7 +5807,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A54" s="2">
         <v>26543</v>
       </c>
@@ -6155,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A55" s="2">
         <v>26634</v>
       </c>
@@ -6211,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A56" s="2">
         <v>26724</v>
       </c>
@@ -6267,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A57" s="2">
         <v>26816</v>
       </c>
@@ -6323,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A58" s="2">
         <v>26908</v>
       </c>
@@ -6382,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A59" s="2">
         <v>26999</v>
       </c>
@@ -6441,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A60" s="2">
         <v>27089</v>
       </c>
@@ -6500,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A61" s="2">
         <v>27181</v>
       </c>
@@ -6559,7 +6267,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A62" s="2">
         <v>27273</v>
       </c>
@@ -6618,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A63" s="2">
         <v>27364</v>
       </c>
@@ -6677,7 +6385,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A64" s="2">
         <v>27454</v>
       </c>
@@ -6736,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A65" s="2">
         <v>27546</v>
       </c>
@@ -6795,7 +6503,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A66" s="2">
         <v>27638</v>
       </c>
@@ -6854,7 +6562,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A67" s="2">
         <v>27729</v>
       </c>
@@ -6913,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A68" s="2">
         <v>27820</v>
       </c>
@@ -6972,7 +6680,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A69" s="2">
         <v>27912</v>
       </c>
@@ -7031,7 +6739,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A70" s="2">
         <v>28004</v>
       </c>
@@ -7090,7 +6798,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A71" s="2">
         <v>28095</v>
       </c>
@@ -7149,7 +6857,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A72" s="2">
         <v>28185</v>
       </c>
@@ -7208,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A73" s="2">
         <v>28277</v>
       </c>
@@ -7267,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A74" s="2">
         <v>28369</v>
       </c>
@@ -7326,7 +7034,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A75" s="2">
         <v>28460</v>
       </c>
@@ -7385,7 +7093,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A76" s="2">
         <v>28550</v>
       </c>
@@ -7444,7 +7152,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A77" s="2">
         <v>28642</v>
       </c>
@@ -7503,7 +7211,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A78" s="2">
         <v>28734</v>
       </c>
@@ -7562,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A79" s="2">
         <v>28825</v>
       </c>
@@ -7621,7 +7329,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A80" s="2">
         <v>28915</v>
       </c>
@@ -7680,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A81" s="2">
         <v>29007</v>
       </c>
@@ -7739,7 +7447,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A82" s="2">
         <v>29099</v>
       </c>
@@ -7798,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A83" s="2">
         <v>29190</v>
       </c>
@@ -7857,7 +7565,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A84" s="2">
         <v>29281</v>
       </c>
@@ -7916,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A85" s="2">
         <v>29373</v>
       </c>
@@ -7975,7 +7683,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A86" s="2">
         <v>29465</v>
       </c>
@@ -8034,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A87" s="2">
         <v>29556</v>
       </c>
@@ -8093,7 +7801,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A88" s="2">
         <v>29646</v>
       </c>
@@ -8152,7 +7860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A89" s="2">
         <v>29738</v>
       </c>
@@ -8211,7 +7919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A90" s="2">
         <v>29830</v>
       </c>
@@ -8270,7 +7978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A91" s="2">
         <v>29921</v>
       </c>
@@ -8329,7 +8037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A92" s="2">
         <v>30011</v>
       </c>
@@ -8388,7 +8096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A93" s="2">
         <v>30103</v>
       </c>
@@ -8447,7 +8155,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A94" s="2">
         <v>30195</v>
       </c>
@@ -8506,7 +8214,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A95" s="2">
         <v>30286</v>
       </c>
@@ -8565,7 +8273,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A96" s="2">
         <v>30376</v>
       </c>
@@ -8624,7 +8332,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A97" s="2">
         <v>30468</v>
       </c>
@@ -8683,7 +8391,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A98" s="2">
         <v>30560</v>
       </c>
@@ -8742,7 +8450,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A99" s="2">
         <v>30651</v>
       </c>
@@ -8801,7 +8509,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A100" s="2">
         <v>30742</v>
       </c>
@@ -8860,7 +8568,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A101" s="2">
         <v>30834</v>
       </c>
@@ -8919,7 +8627,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A102" s="2">
         <v>30926</v>
       </c>
@@ -8978,7 +8686,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A103" s="2">
         <v>31017</v>
       </c>
@@ -9037,7 +8745,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A104" s="2">
         <v>31107</v>
       </c>
@@ -9096,7 +8804,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A105" s="2">
         <v>31199</v>
       </c>
@@ -9155,7 +8863,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A106" s="2">
         <v>31291</v>
       </c>
@@ -9214,7 +8922,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A107" s="2">
         <v>31382</v>
       </c>
@@ -9273,7 +8981,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A108" s="2">
         <v>31472</v>
       </c>
@@ -9332,7 +9040,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A109" s="2">
         <v>31564</v>
       </c>
@@ -9391,7 +9099,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A110" s="2">
         <v>31656</v>
       </c>
@@ -9450,7 +9158,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A111" s="2">
         <v>31747</v>
       </c>
@@ -9509,7 +9217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A112" s="2">
         <v>31837</v>
       </c>
@@ -9568,7 +9276,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A113" s="2">
         <v>31929</v>
       </c>
@@ -9627,7 +9335,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A114" s="2">
         <v>32021</v>
       </c>
@@ -9686,7 +9394,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A115" s="2">
         <v>32112</v>
       </c>
@@ -9745,7 +9453,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A116" s="2">
         <v>32203</v>
       </c>
@@ -9804,7 +9512,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A117" s="2">
         <v>32295</v>
       </c>
@@ -9863,7 +9571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A118" s="2">
         <v>32387</v>
       </c>
@@ -9922,7 +9630,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A119" s="2">
         <v>32478</v>
       </c>
@@ -9981,7 +9689,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A120" s="2">
         <v>32568</v>
       </c>
@@ -10040,7 +9748,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A121" s="2">
         <v>32660</v>
       </c>
@@ -10099,7 +9807,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A122" s="2">
         <v>32752</v>
       </c>
@@ -10158,7 +9866,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A123" s="2">
         <v>32843</v>
       </c>
@@ -10217,7 +9925,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A124" s="2">
         <v>32933</v>
       </c>
@@ -10276,7 +9984,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A125" s="2">
         <v>33025</v>
       </c>
@@ -10335,7 +10043,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A126" s="2">
         <v>33117</v>
       </c>
@@ -10394,7 +10102,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A127" s="2">
         <v>33208</v>
       </c>
@@ -10453,7 +10161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A128" s="2">
         <v>33298</v>
       </c>
@@ -10512,7 +10220,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A129" s="2">
         <v>33390</v>
       </c>
@@ -10571,7 +10279,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A130" s="2">
         <v>33482</v>
       </c>
@@ -10630,7 +10338,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A131" s="2">
         <v>33573</v>
       </c>
@@ -10689,7 +10397,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A132" s="2">
         <v>33664</v>
       </c>
@@ -10748,7 +10456,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A133" s="2">
         <v>33756</v>
       </c>
@@ -10807,7 +10515,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="134" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A134" s="2">
         <v>33848</v>
       </c>
@@ -10866,7 +10574,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A135" s="2">
         <v>33939</v>
       </c>
@@ -10925,7 +10633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A136" s="2">
         <v>34029</v>
       </c>
@@ -10984,7 +10692,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A137" s="2">
         <v>34121</v>
       </c>
@@ -11043,7 +10751,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A138" s="2">
         <v>34213</v>
       </c>
@@ -11102,7 +10810,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A139" s="2">
         <v>34304</v>
       </c>
@@ -11161,7 +10869,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A140" s="2">
         <v>34394</v>
       </c>
@@ -11220,7 +10928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A141" s="2">
         <v>34486</v>
       </c>
@@ -11279,7 +10987,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A142" s="2">
         <v>34578</v>
       </c>
@@ -11338,7 +11046,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A143" s="2">
         <v>34669</v>
       </c>
@@ -11397,7 +11105,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A144" s="2">
         <v>34759</v>
       </c>
@@ -11456,7 +11164,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A145" s="2">
         <v>34851</v>
       </c>
@@ -11515,7 +11223,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A146" s="2">
         <v>34943</v>
       </c>
@@ -11574,7 +11282,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A147" s="2">
         <v>35034</v>
       </c>
@@ -11633,7 +11341,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A148" s="2">
         <v>35125</v>
       </c>
@@ -11692,7 +11400,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A149" s="2">
         <v>35217</v>
       </c>
@@ -11751,7 +11459,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A150" s="2">
         <v>35309</v>
       </c>
@@ -11810,7 +11518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A151" s="2">
         <v>35400</v>
       </c>
@@ -11869,7 +11577,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A152" s="2">
         <v>35490</v>
       </c>
@@ -11928,7 +11636,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A153" s="2">
         <v>35582</v>
       </c>
@@ -11987,7 +11695,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A154" s="2">
         <v>35674</v>
       </c>
@@ -12046,7 +11754,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A155" s="2">
         <v>35765</v>
       </c>
@@ -12105,7 +11813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A156" s="2">
         <v>35855</v>
       </c>
@@ -12164,7 +11872,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A157" s="2">
         <v>35947</v>
       </c>
@@ -12223,7 +11931,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A158" s="2">
         <v>36039</v>
       </c>
@@ -12282,7 +11990,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A159" s="2">
         <v>36130</v>
       </c>
@@ -12341,7 +12049,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A160" s="2">
         <v>36220</v>
       </c>
@@ -12400,7 +12108,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A161" s="2">
         <v>36312</v>
       </c>
@@ -12459,7 +12167,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A162" s="2">
         <v>36404</v>
       </c>
@@ -12518,7 +12226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A163" s="2">
         <v>36495</v>
       </c>
@@ -12577,7 +12285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A164" s="2">
         <v>36586</v>
       </c>
@@ -12636,7 +12344,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A165" s="2">
         <v>36678</v>
       </c>
@@ -12695,7 +12403,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A166" s="2">
         <v>36770</v>
       </c>
@@ -12754,7 +12462,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A167" s="2">
         <v>36861</v>
       </c>
@@ -12813,7 +12521,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A168" s="2">
         <v>36951</v>
       </c>
@@ -12872,7 +12580,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A169" s="2">
         <v>37043</v>
       </c>
@@ -12931,7 +12639,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A170" s="2">
         <v>37135</v>
       </c>
@@ -12990,7 +12698,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A171" s="2">
         <v>37226</v>
       </c>
@@ -13049,7 +12757,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A172" s="2">
         <v>37316</v>
       </c>
@@ -13108,7 +12816,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A173" s="2">
         <v>37408</v>
       </c>
@@ -13167,7 +12875,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A174" s="2">
         <v>37500</v>
       </c>
@@ -13226,7 +12934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A175" s="2">
         <v>37591</v>
       </c>
@@ -13285,7 +12993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A176" s="2">
         <v>37681</v>
       </c>
@@ -13344,7 +13052,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A177" s="2">
         <v>37773</v>
       </c>
@@ -13403,7 +13111,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A178" s="2">
         <v>37865</v>
       </c>
@@ -13462,7 +13170,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A179" s="2">
         <v>37956</v>
       </c>
@@ -13521,7 +13229,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A180" s="2">
         <v>38047</v>
       </c>
@@ -13580,7 +13288,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A181" s="2">
         <v>38139</v>
       </c>
@@ -13639,7 +13347,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A182" s="2">
         <v>38231</v>
       </c>
@@ -13698,7 +13406,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A183" s="2">
         <v>38322</v>
       </c>
@@ -13757,7 +13465,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A184" s="2">
         <v>38412</v>
       </c>
@@ -13816,7 +13524,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A185" s="2">
         <v>38504</v>
       </c>
@@ -13875,7 +13583,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A186" s="2">
         <v>38596</v>
       </c>
@@ -13934,7 +13642,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A187" s="2">
         <v>38687</v>
       </c>
@@ -13993,7 +13701,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="188" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A188" s="2">
         <v>38777</v>
       </c>
@@ -14052,7 +13760,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="189" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A189" s="2">
         <v>38869</v>
       </c>
@@ -14111,7 +13819,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="190" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A190" s="2">
         <v>38961</v>
       </c>
@@ -14170,7 +13878,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="191" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A191" s="2">
         <v>39052</v>
       </c>
@@ -14229,7 +13937,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A192" s="2">
         <v>39142</v>
       </c>
@@ -14288,7 +13996,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="193" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A193" s="2">
         <v>39234</v>
       </c>
@@ -14347,7 +14055,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="194" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A194" s="2">
         <v>39326</v>
       </c>
@@ -14406,7 +14114,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="195" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A195" s="2">
         <v>39417</v>
       </c>
@@ -14465,7 +14173,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="196" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A196" s="2">
         <v>39508</v>
       </c>
@@ -14524,7 +14232,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="197" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A197" s="2">
         <v>39600</v>
       </c>
@@ -14583,7 +14291,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="198" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A198" s="2">
         <v>39692</v>
       </c>
@@ -14642,7 +14350,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="199" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A199" s="2">
         <v>39783</v>
       </c>
@@ -14701,7 +14409,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="200" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A200" s="2">
         <v>39873</v>
       </c>
@@ -14760,7 +14468,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="201" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A201" s="2">
         <v>39965</v>
       </c>
@@ -14819,7 +14527,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="202" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A202" s="2">
         <v>40057</v>
       </c>
@@ -14878,7 +14586,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="203" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A203" s="2">
         <v>40148</v>
       </c>
@@ -14937,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A204" s="2">
         <v>40238</v>
       </c>
@@ -14996,7 +14704,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="205" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A205" s="2">
         <v>40330</v>
       </c>
@@ -15055,7 +14763,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="206" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A206" s="2">
         <v>40422</v>
       </c>
@@ -15114,7 +14822,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="207" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A207" s="2">
         <v>40513</v>
       </c>
@@ -15173,7 +14881,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="208" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A208" s="2">
         <v>40603</v>
       </c>
@@ -15232,7 +14940,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="209" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A209" s="2">
         <v>40695</v>
       </c>
@@ -15291,7 +14999,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="210" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A210" s="2">
         <v>40787</v>
       </c>
@@ -15350,7 +15058,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="211" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A211" s="2">
         <v>40878</v>
       </c>
@@ -15409,7 +15117,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A212" s="2">
         <v>40969</v>
       </c>
@@ -15468,7 +15176,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="213" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A213" s="2">
         <v>41061</v>
       </c>
@@ -15527,7 +15235,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="214" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A214" s="2">
         <v>41153</v>
       </c>
@@ -15586,7 +15294,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="215" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A215" s="2">
         <v>41244</v>
       </c>
@@ -15645,7 +15353,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="216" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A216" s="2">
         <v>41334</v>
       </c>
@@ -15704,7 +15412,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="217" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A217" s="2">
         <v>41426</v>
       </c>
@@ -15763,7 +15471,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="218" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A218" s="2">
         <v>41518</v>
       </c>
@@ -15822,7 +15530,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="219" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A219" s="2">
         <v>41609</v>
       </c>
@@ -15881,7 +15589,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="220" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A220" s="2">
         <v>41699</v>
       </c>
@@ -15940,7 +15648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -15999,7 +15707,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="222" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A222" s="2">
         <v>41883</v>
       </c>
@@ -16058,7 +15766,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="223" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A223" s="2">
         <v>41974</v>
       </c>
@@ -16117,7 +15825,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="224" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A224" s="2">
         <v>42064</v>
       </c>
@@ -16176,7 +15884,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="225" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A225" s="2">
         <v>42156</v>
       </c>
@@ -16235,7 +15943,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="226" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A226" s="2">
         <v>42248</v>
       </c>
@@ -16294,7 +16002,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="227" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A227" s="2">
         <v>42339</v>
       </c>
@@ -16353,7 +16061,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="228" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A228" s="2">
         <v>42430</v>
       </c>
@@ -16412,7 +16120,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="229" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A229" s="2">
         <v>42522</v>
       </c>
@@ -16471,7 +16179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A230" s="2">
         <v>42614</v>
       </c>
@@ -16530,7 +16238,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="231" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A231" s="2">
         <v>42705</v>
       </c>
@@ -16589,7 +16297,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="232" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A232" s="2">
         <v>42795</v>
       </c>
@@ -16648,7 +16356,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="233" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A233" s="2">
         <v>42887</v>
       </c>
@@ -16707,7 +16415,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="234" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A234" s="2">
         <v>42979</v>
       </c>
@@ -16766,7 +16474,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="235" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A235" s="2">
         <v>43070</v>
       </c>
@@ -16825,7 +16533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A236" s="2">
         <v>43160</v>
       </c>
@@ -16884,7 +16592,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="237" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A237" s="2">
         <v>43252</v>
       </c>
@@ -16943,7 +16651,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="238" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A238" s="2">
         <v>43344</v>
       </c>
@@ -17002,7 +16710,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="239" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A239" s="2">
         <v>43435</v>
       </c>
@@ -17061,7 +16769,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="240" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A240" s="2">
         <v>43525</v>
       </c>
@@ -17120,7 +16828,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="241" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A241" s="2">
         <v>43617</v>
       </c>
@@ -17179,7 +16887,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="242" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A242" s="2">
         <v>43709</v>
       </c>
@@ -17238,7 +16946,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="243" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A243" s="2">
         <v>43800</v>
       </c>
@@ -17297,7 +17005,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="244" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A244" s="2">
         <v>43891</v>
       </c>
@@ -17356,7 +17064,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="245" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A245" s="2">
         <v>43983</v>
       </c>
@@ -17415,7 +17123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A246" s="2">
         <v>44075</v>
       </c>
@@ -17474,7 +17182,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="247" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A247" s="2">
         <v>44166</v>
       </c>
@@ -17533,7 +17241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A248" s="2">
         <v>44256</v>
       </c>
@@ -17592,7 +17300,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="249" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.6">
       <c r="O249" s="2">
         <v>34639</v>
       </c>
@@ -17615,7 +17323,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="250" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.6">
       <c r="O250" s="2">
         <v>34669</v>
       </c>
@@ -17638,7 +17346,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="251" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.6">
       <c r="O251" s="2">
         <v>34700</v>
       </c>
@@ -17661,7 +17369,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="252" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.6">
       <c r="O252" s="2">
         <v>34731</v>
       </c>
@@ -17684,7 +17392,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="253" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.6">
       <c r="O253" s="2">
         <v>34759</v>
       </c>
@@ -17707,7 +17415,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="254" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.6">
       <c r="O254" s="2">
         <v>34790</v>
       </c>
@@ -17730,7 +17438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.6">
       <c r="O255" s="2">
         <v>34820</v>
       </c>
@@ -17753,7 +17461,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="256" spans="1:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.6">
       <c r="O256" s="2">
         <v>34851</v>
       </c>
@@ -17776,7 +17484,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="257" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="257" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O257" s="2">
         <v>34881</v>
       </c>
@@ -17799,7 +17507,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="258" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="258" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O258" s="2">
         <v>34912</v>
       </c>
@@ -17822,7 +17530,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="259" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="259" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O259" s="2">
         <v>34943</v>
       </c>
@@ -17845,7 +17553,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="260" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="260" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O260" s="2">
         <v>34973</v>
       </c>
@@ -17868,7 +17576,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="261" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="261" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O261" s="2">
         <v>35004</v>
       </c>
@@ -17891,7 +17599,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="262" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="262" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O262" s="2">
         <v>35034</v>
       </c>
@@ -17914,7 +17622,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="263" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="263" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O263" s="2">
         <v>35065</v>
       </c>
@@ -17937,7 +17645,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="264" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="264" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O264" s="2">
         <v>35096</v>
       </c>
@@ -17960,7 +17668,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="265" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="265" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O265" s="2">
         <v>35125</v>
       </c>
@@ -17983,7 +17691,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="266" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="266" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O266" s="2">
         <v>35156</v>
       </c>
@@ -18006,7 +17714,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="267" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="267" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O267" s="2">
         <v>35186</v>
       </c>
@@ -18029,7 +17737,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="268" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="268" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O268" s="2">
         <v>35217</v>
       </c>
@@ -18052,7 +17760,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="269" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="269" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O269" s="2">
         <v>35247</v>
       </c>
@@ -18075,7 +17783,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="270" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="270" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O270" s="2">
         <v>35278</v>
       </c>
@@ -18098,7 +17806,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="271" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="271" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O271" s="2">
         <v>35309</v>
       </c>
@@ -18121,7 +17829,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="272" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="272" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O272" s="2">
         <v>35339</v>
       </c>
@@ -18144,7 +17852,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="273" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="273" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O273" s="2">
         <v>35370</v>
       </c>
@@ -18167,7 +17875,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="274" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="274" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O274" s="2">
         <v>35400</v>
       </c>
@@ -18190,7 +17898,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="275" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="275" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O275" s="2">
         <v>35431</v>
       </c>
@@ -18213,7 +17921,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="276" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="276" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O276" s="2">
         <v>35462</v>
       </c>
@@ -18236,7 +17944,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="277" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="277" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O277" s="2">
         <v>35490</v>
       </c>
@@ -18259,7 +17967,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="278" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="278" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O278" s="2">
         <v>35521</v>
       </c>
@@ -18282,7 +17990,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="279" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="279" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O279" s="2">
         <v>35551</v>
       </c>
@@ -18305,7 +18013,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="280" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="280" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O280" s="2">
         <v>35582</v>
       </c>
@@ -18328,7 +18036,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="281" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="281" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O281" s="2">
         <v>35612</v>
       </c>
@@ -18351,7 +18059,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="282" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="282" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O282" s="2">
         <v>35643</v>
       </c>
@@ -18374,7 +18082,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="283" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="283" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O283" s="2">
         <v>35674</v>
       </c>
@@ -18397,7 +18105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="284" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O284" s="2">
         <v>35704</v>
       </c>
@@ -18420,7 +18128,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="285" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="285" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O285" s="2">
         <v>35735</v>
       </c>
@@ -18443,7 +18151,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="286" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="286" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O286" s="2">
         <v>35765</v>
       </c>
@@ -18466,7 +18174,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="287" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="287" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O287" s="2">
         <v>35796</v>
       </c>
@@ -18489,7 +18197,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="288" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="288" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O288" s="2">
         <v>35827</v>
       </c>
@@ -18512,7 +18220,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="289" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="289" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O289" s="2">
         <v>35855</v>
       </c>
@@ -18535,7 +18243,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="290" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="290" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O290" s="2">
         <v>35886</v>
       </c>
@@ -18558,7 +18266,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="291" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="291" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O291" s="2">
         <v>35916</v>
       </c>
@@ -18581,7 +18289,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="292" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="292" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O292" s="2">
         <v>35947</v>
       </c>
@@ -18595,7 +18303,7 @@
         <v>14.671277</v>
       </c>
     </row>
-    <row r="293" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="293" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O293" s="2">
         <v>35977</v>
       </c>
@@ -18609,7 +18317,7 @@
         <v>14.697129800000001</v>
       </c>
     </row>
-    <row r="294" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="294" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O294" s="2">
         <v>36008</v>
       </c>
@@ -18623,7 +18331,7 @@
         <v>14.657068799999999</v>
       </c>
     </row>
-    <row r="295" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="295" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O295" s="2">
         <v>36039</v>
       </c>
@@ -18637,7 +18345,7 @@
         <v>14.2446853</v>
       </c>
     </row>
-    <row r="296" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="296" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O296" s="2">
         <v>36069</v>
       </c>
@@ -18651,7 +18359,7 @@
         <v>14.255798199999999</v>
       </c>
     </row>
-    <row r="297" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="297" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O297" s="2">
         <v>36100</v>
       </c>
@@ -18665,7 +18373,7 @@
         <v>14.3570761</v>
       </c>
     </row>
-    <row r="298" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="298" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O298" s="2">
         <v>36130</v>
       </c>
@@ -18679,7 +18387,7 @@
         <v>13.9615385</v>
       </c>
     </row>
-    <row r="299" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="299" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O299" s="2">
         <v>36161</v>
       </c>
@@ -18693,7 +18401,7 @@
         <v>13.7524598</v>
       </c>
     </row>
-    <row r="300" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="300" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O300" s="2">
         <v>36192</v>
       </c>
@@ -18707,7 +18415,7 @@
         <v>13.7075122</v>
       </c>
     </row>
-    <row r="301" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="301" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O301" s="2">
         <v>36220</v>
       </c>
@@ -18721,7 +18429,7 @@
         <v>13.6135825</v>
       </c>
     </row>
-    <row r="302" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="302" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O302" s="2">
         <v>36251</v>
       </c>
@@ -18735,7 +18443,7 @@
         <v>13.7834322</v>
       </c>
     </row>
-    <row r="303" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="303" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O303" s="2">
         <v>36281</v>
       </c>
@@ -18749,7 +18457,7 @@
         <v>13.7818705</v>
       </c>
     </row>
-    <row r="304" spans="15:22" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="304" spans="15:22" x14ac:dyDescent="0.6">
       <c r="O304" s="2">
         <v>36312</v>
       </c>
@@ -18763,7 +18471,7 @@
         <v>13.570817</v>
       </c>
     </row>
-    <row r="305" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="305" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O305" s="2">
         <v>36342</v>
       </c>
@@ -18777,7 +18485,7 @@
         <v>13.3262786</v>
       </c>
     </row>
-    <row r="306" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="306" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O306" s="2">
         <v>36373</v>
       </c>
@@ -18791,7 +18499,7 @@
         <v>13.302955000000001</v>
       </c>
     </row>
-    <row r="307" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="307" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O307" s="2">
         <v>36404</v>
       </c>
@@ -18805,7 +18513,7 @@
         <v>13.124529300000001</v>
       </c>
     </row>
-    <row r="308" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="308" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O308" s="2">
         <v>36434</v>
       </c>
@@ -18819,7 +18527,7 @@
         <v>13.1690799</v>
       </c>
     </row>
-    <row r="309" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="309" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O309" s="2">
         <v>36465</v>
       </c>
@@ -18833,7 +18541,7 @@
         <v>12.9510053</v>
       </c>
     </row>
-    <row r="310" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="310" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O310" s="2">
         <v>36495</v>
       </c>
@@ -18847,7 +18555,7 @@
         <v>13.0405736</v>
       </c>
     </row>
-    <row r="311" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="311" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O311" s="2">
         <v>36526</v>
       </c>
@@ -18861,7 +18569,7 @@
         <v>13.146899100000001</v>
       </c>
     </row>
-    <row r="312" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="312" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O312" s="2">
         <v>36557</v>
       </c>
@@ -18875,7 +18583,7 @@
         <v>13.063195800000001</v>
       </c>
     </row>
-    <row r="313" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="313" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O313" s="2">
         <v>36586</v>
       </c>
@@ -18889,7 +18597,7 @@
         <v>12.3070296</v>
       </c>
     </row>
-    <row r="314" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="314" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O314" s="2">
         <v>36617</v>
       </c>
@@ -18903,7 +18611,7 @@
         <v>12.296689300000001</v>
       </c>
     </row>
-    <row r="315" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="315" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O315" s="2">
         <v>36647</v>
       </c>
@@ -18917,7 +18625,7 @@
         <v>12.8216859</v>
       </c>
     </row>
-    <row r="316" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="316" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O316" s="2">
         <v>36678</v>
       </c>
@@ -18931,7 +18639,7 @@
         <v>12.044549</v>
       </c>
     </row>
-    <row r="317" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="317" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O317" s="2">
         <v>36708</v>
       </c>
@@ -18945,7 +18653,7 @@
         <v>11.660152099999999</v>
       </c>
     </row>
-    <row r="318" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="318" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O318" s="2">
         <v>36739</v>
       </c>
@@ -18959,7 +18667,7 @@
         <v>12.5674387</v>
       </c>
     </row>
-    <row r="319" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="319" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O319" s="2">
         <v>36770</v>
       </c>
@@ -18973,7 +18681,7 @@
         <v>12.0908506</v>
       </c>
     </row>
-    <row r="320" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="320" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O320" s="2">
         <v>36800</v>
       </c>
@@ -18987,7 +18695,7 @@
         <v>12.6469857</v>
       </c>
     </row>
-    <row r="321" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="321" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O321" s="2">
         <v>36831</v>
       </c>
@@ -19001,7 +18709,7 @@
         <v>13.008635</v>
       </c>
     </row>
-    <row r="322" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="322" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O322" s="2">
         <v>36861</v>
       </c>
@@ -19015,7 +18723,7 @@
         <v>12.7991832</v>
       </c>
     </row>
-    <row r="323" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="323" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O323" s="2">
         <v>36892</v>
       </c>
@@ -19029,7 +18737,7 @@
         <v>12.7723508</v>
       </c>
     </row>
-    <row r="324" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="324" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O324" s="2">
         <v>36923</v>
       </c>
@@ -19043,7 +18751,7 @@
         <v>13.0826403</v>
       </c>
     </row>
-    <row r="325" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="325" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O325" s="2">
         <v>36951</v>
       </c>
@@ -19057,7 +18765,7 @@
         <v>13.086576000000001</v>
       </c>
     </row>
-    <row r="326" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="326" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O326" s="2">
         <v>36982</v>
       </c>
@@ -19071,7 +18779,7 @@
         <v>13.0905541</v>
       </c>
     </row>
-    <row r="327" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="327" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O327" s="2">
         <v>37012</v>
       </c>
@@ -19085,7 +18793,7 @@
         <v>13.124980600000001</v>
       </c>
     </row>
-    <row r="328" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="328" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O328" s="2">
         <v>37043</v>
       </c>
@@ -19099,7 +18807,7 @@
         <v>13.299878700000001</v>
       </c>
     </row>
-    <row r="329" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="329" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O329" s="2">
         <v>37073</v>
       </c>
@@ -19113,7 +18821,7 @@
         <v>13.393614299999999</v>
       </c>
     </row>
-    <row r="330" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="330" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O330" s="2">
         <v>37104</v>
       </c>
@@ -19127,7 +18835,7 @@
         <v>13.4552353</v>
       </c>
     </row>
-    <row r="331" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="331" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O331" s="2">
         <v>37135</v>
       </c>
@@ -19141,7 +18849,7 @@
         <v>13.492353899999999</v>
       </c>
     </row>
-    <row r="332" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="332" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O332" s="2">
         <v>37165</v>
       </c>
@@ -19155,7 +18863,7 @@
         <v>13.786429699999999</v>
       </c>
     </row>
-    <row r="333" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="333" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O333" s="2">
         <v>37196</v>
       </c>
@@ -19169,7 +18877,7 @@
         <v>13.418871899999999</v>
       </c>
     </row>
-    <row r="334" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="334" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O334" s="2">
         <v>37226</v>
       </c>
@@ -19183,7 +18891,7 @@
         <v>13.3973508</v>
       </c>
     </row>
-    <row r="335" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="335" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O335" s="2">
         <v>37257</v>
       </c>
@@ -19197,7 +18905,7 @@
         <v>13.493474300000001</v>
       </c>
     </row>
-    <row r="336" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="336" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O336" s="2">
         <v>37288</v>
       </c>
@@ -19211,7 +18919,7 @@
         <v>13.1128521</v>
       </c>
     </row>
-    <row r="337" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="337" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O337" s="2">
         <v>37316</v>
       </c>
@@ -19225,7 +18933,7 @@
         <v>12.9164645</v>
       </c>
     </row>
-    <row r="338" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="338" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O338" s="2">
         <v>37347</v>
       </c>
@@ -19239,7 +18947,7 @@
         <v>12.772361200000001</v>
       </c>
     </row>
-    <row r="339" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="339" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O339" s="2">
         <v>37377</v>
       </c>
@@ -19253,7 +18961,7 @@
         <v>12.676301199999999</v>
       </c>
     </row>
-    <row r="340" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="340" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O340" s="2">
         <v>37408</v>
       </c>
@@ -19267,7 +18975,7 @@
         <v>12.682675100000001</v>
       </c>
     </row>
-    <row r="341" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="341" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O341" s="2">
         <v>37438</v>
       </c>
@@ -19281,7 +18989,7 @@
         <v>12.4896472</v>
       </c>
     </row>
-    <row r="342" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="342" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O342" s="2">
         <v>37469</v>
       </c>
@@ -19295,7 +19003,7 @@
         <v>12.634120100000001</v>
       </c>
     </row>
-    <row r="343" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="343" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O343" s="2">
         <v>37500</v>
       </c>
@@ -19309,7 +19017,7 @@
         <v>12.5320158</v>
       </c>
     </row>
-    <row r="344" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="344" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O344" s="2">
         <v>37530</v>
       </c>
@@ -19323,7 +19031,7 @@
         <v>12.240209699999999</v>
       </c>
     </row>
-    <row r="345" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="345" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O345" s="2">
         <v>37561</v>
       </c>
@@ -19337,7 +19045,7 @@
         <v>12.0460204</v>
       </c>
     </row>
-    <row r="346" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="346" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O346" s="2">
         <v>37591</v>
       </c>
@@ -19351,7 +19059,7 @@
         <v>12.3126874</v>
       </c>
     </row>
-    <row r="347" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="347" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O347" s="2">
         <v>37622</v>
       </c>
@@ -19365,7 +19073,7 @@
         <v>12.5864408</v>
       </c>
     </row>
-    <row r="348" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="348" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O348" s="2">
         <v>37653</v>
       </c>
@@ -19379,7 +19087,7 @@
         <v>12.778465000000001</v>
       </c>
     </row>
-    <row r="349" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="349" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O349" s="2">
         <v>37681</v>
       </c>
@@ -19393,7 +19101,7 @@
         <v>13.084467399999999</v>
       </c>
     </row>
-    <row r="350" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="350" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O350" s="2">
         <v>37712</v>
       </c>
@@ -19407,7 +19115,7 @@
         <v>13.174796600000001</v>
       </c>
     </row>
-    <row r="351" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="351" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O351" s="2">
         <v>37742</v>
       </c>
@@ -19421,7 +19129,7 @@
         <v>13.1679374</v>
       </c>
     </row>
-    <row r="352" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="352" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O352" s="2">
         <v>37773</v>
       </c>
@@ -19435,7 +19143,7 @@
         <v>13.1879119</v>
       </c>
     </row>
-    <row r="353" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="353" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O353" s="2">
         <v>37803</v>
       </c>
@@ -19449,7 +19157,7 @@
         <v>13.138020900000001</v>
       </c>
     </row>
-    <row r="354" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="354" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O354" s="2">
         <v>37834</v>
       </c>
@@ -19463,7 +19171,7 @@
         <v>12.756417000000001</v>
       </c>
     </row>
-    <row r="355" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="355" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O355" s="2">
         <v>37865</v>
       </c>
@@ -19477,7 +19185,7 @@
         <v>12.849622699999999</v>
       </c>
     </row>
-    <row r="356" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="356" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O356" s="2">
         <v>37895</v>
       </c>
@@ -19491,7 +19199,7 @@
         <v>12.944240300000001</v>
       </c>
     </row>
-    <row r="357" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="357" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O357" s="2">
         <v>37926</v>
       </c>
@@ -19505,7 +19213,7 @@
         <v>12.9482678</v>
       </c>
     </row>
-    <row r="358" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="358" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O358" s="2">
         <v>37956</v>
       </c>
@@ -19519,7 +19227,7 @@
         <v>12.812770499999999</v>
       </c>
     </row>
-    <row r="359" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="359" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O359" s="2">
         <v>37987</v>
       </c>
@@ -19533,7 +19241,7 @@
         <v>12.458342500000001</v>
       </c>
     </row>
-    <row r="360" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="360" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O360" s="2">
         <v>38018</v>
       </c>
@@ -19547,7 +19255,7 @@
         <v>12.537846</v>
       </c>
     </row>
-    <row r="361" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="361" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O361" s="2">
         <v>38047</v>
       </c>
@@ -19561,7 +19269,7 @@
         <v>12.4541208</v>
       </c>
     </row>
-    <row r="362" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="362" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O362" s="2">
         <v>38078</v>
       </c>
@@ -19575,7 +19283,7 @@
         <v>12.262496499999999</v>
       </c>
     </row>
-    <row r="363" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="363" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O363" s="2">
         <v>38108</v>
       </c>
@@ -19589,7 +19297,7 @@
         <v>12.3783172</v>
       </c>
     </row>
-    <row r="364" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="364" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O364" s="2">
         <v>38139</v>
       </c>
@@ -19603,7 +19311,7 @@
         <v>12.528750199999999</v>
       </c>
     </row>
-    <row r="365" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="365" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O365" s="2">
         <v>38169</v>
       </c>
@@ -19617,7 +19325,7 @@
         <v>12.5172876</v>
       </c>
     </row>
-    <row r="366" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="366" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O366" s="2">
         <v>38200</v>
       </c>
@@ -19631,7 +19339,7 @@
         <v>12.4733333</v>
       </c>
     </row>
-    <row r="367" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="367" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O367" s="2">
         <v>38231</v>
       </c>
@@ -19645,7 +19353,7 @@
         <v>12.3793255</v>
       </c>
     </row>
-    <row r="368" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="368" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O368" s="2">
         <v>38261</v>
       </c>
@@ -19659,7 +19367,7 @@
         <v>12.0110873</v>
       </c>
     </row>
-    <row r="369" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="369" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O369" s="2">
         <v>38292</v>
       </c>
@@ -19673,7 +19381,7 @@
         <v>12.007138100000001</v>
       </c>
     </row>
-    <row r="370" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="370" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O370" s="2">
         <v>38322</v>
       </c>
@@ -19687,7 +19395,7 @@
         <v>11.9543164</v>
       </c>
     </row>
-    <row r="371" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="371" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O371" s="2">
         <v>38353</v>
       </c>
@@ -19701,7 +19409,7 @@
         <v>11.885671</v>
       </c>
     </row>
-    <row r="372" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="372" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O372" s="2">
         <v>38384</v>
       </c>
@@ -19715,7 +19423,7 @@
         <v>11.903245099999999</v>
       </c>
     </row>
-    <row r="373" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="373" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O373" s="2">
         <v>38412</v>
       </c>
@@ -19729,7 +19437,7 @@
         <v>11.952107399999999</v>
       </c>
     </row>
-    <row r="374" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="374" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O374" s="2">
         <v>38443</v>
       </c>
@@ -19743,7 +19451,7 @@
         <v>11.959539299999999</v>
       </c>
     </row>
-    <row r="375" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="375" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O375" s="2">
         <v>38473</v>
       </c>
@@ -19757,7 +19465,7 @@
         <v>11.862527099999999</v>
       </c>
     </row>
-    <row r="376" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="376" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O376" s="2">
         <v>38504</v>
       </c>
@@ -19771,7 +19479,7 @@
         <v>11.7415048</v>
       </c>
     </row>
-    <row r="377" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="377" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O377" s="2">
         <v>38534</v>
       </c>
@@ -19785,7 +19493,7 @@
         <v>11.568944399999999</v>
       </c>
     </row>
-    <row r="378" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="378" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O378" s="2">
         <v>38565</v>
       </c>
@@ -19799,7 +19507,7 @@
         <v>11.4886772</v>
       </c>
     </row>
-    <row r="379" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="379" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O379" s="2">
         <v>38596</v>
       </c>
@@ -19813,7 +19521,7 @@
         <v>11.6692997</v>
       </c>
     </row>
-    <row r="380" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="380" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O380" s="2">
         <v>38626</v>
       </c>
@@ -19827,7 +19535,7 @@
         <v>11.6949627</v>
       </c>
     </row>
-    <row r="381" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="381" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O381" s="2">
         <v>38657</v>
       </c>
@@ -19841,7 +19549,7 @@
         <v>11.7310309</v>
       </c>
     </row>
-    <row r="382" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="382" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O382" s="2">
         <v>38687</v>
       </c>
@@ -19855,7 +19563,7 @@
         <v>11.743974700000001</v>
       </c>
     </row>
-    <row r="383" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="383" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O383" s="2">
         <v>38718</v>
       </c>
@@ -19869,7 +19577,7 @@
         <v>11.842453600000001</v>
       </c>
     </row>
-    <row r="384" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="384" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O384" s="2">
         <v>38749</v>
       </c>
@@ -19883,7 +19591,7 @@
         <v>11.749626900000001</v>
       </c>
     </row>
-    <row r="385" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="385" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O385" s="2">
         <v>38777</v>
       </c>
@@ -19897,7 +19605,7 @@
         <v>11.395014099999999</v>
       </c>
     </row>
-    <row r="386" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="386" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O386" s="2">
         <v>38808</v>
       </c>
@@ -19911,7 +19619,7 @@
         <v>11.500137</v>
       </c>
     </row>
-    <row r="387" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="387" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O387" s="2">
         <v>38838</v>
       </c>
@@ -19925,7 +19633,7 @@
         <v>11.321166099999999</v>
       </c>
     </row>
-    <row r="388" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="388" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O388" s="2">
         <v>38869</v>
       </c>
@@ -19939,7 +19647,7 @@
         <v>11.378727700000001</v>
       </c>
     </row>
-    <row r="389" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="389" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O389" s="2">
         <v>38899</v>
       </c>
@@ -19953,7 +19661,7 @@
         <v>11.2530129</v>
       </c>
     </row>
-    <row r="390" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="390" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O390" s="2">
         <v>38930</v>
       </c>
@@ -19967,7 +19675,7 @@
         <v>11.3177089</v>
       </c>
     </row>
-    <row r="391" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="391" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O391" s="2">
         <v>38961</v>
       </c>
@@ -19981,7 +19689,7 @@
         <v>11.2587537</v>
       </c>
     </row>
-    <row r="392" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="392" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O392" s="2">
         <v>38991</v>
       </c>
@@ -19995,7 +19703,7 @@
         <v>10.845750000000001</v>
       </c>
     </row>
-    <row r="393" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="393" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O393" s="2">
         <v>39022</v>
       </c>
@@ -20009,7 +19717,7 @@
         <v>10.7665139</v>
       </c>
     </row>
-    <row r="394" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="394" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O394" s="2">
         <v>39052</v>
       </c>
@@ -20023,7 +19731,7 @@
         <v>10.853801199999999</v>
       </c>
     </row>
-    <row r="395" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="395" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O395" s="2">
         <v>39083</v>
       </c>
@@ -20037,7 +19745,7 @@
         <v>10.8870696</v>
       </c>
     </row>
-    <row r="396" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="396" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O396" s="2">
         <v>39114</v>
       </c>
@@ -20051,7 +19759,7 @@
         <v>11.0669936</v>
       </c>
     </row>
-    <row r="397" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="397" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O397" s="2">
         <v>39142</v>
       </c>
@@ -20065,7 +19773,7 @@
         <v>10.761970399999999</v>
       </c>
     </row>
-    <row r="398" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="398" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O398" s="2">
         <v>39173</v>
       </c>
@@ -20079,7 +19787,7 @@
         <v>10.6155074</v>
       </c>
     </row>
-    <row r="399" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="399" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O399" s="2">
         <v>39203</v>
       </c>
@@ -20093,7 +19801,7 @@
         <v>10.534198999999999</v>
       </c>
     </row>
-    <row r="400" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="400" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O400" s="2">
         <v>39234</v>
       </c>
@@ -20107,7 +19815,7 @@
         <v>10.5716459</v>
       </c>
     </row>
-    <row r="401" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="401" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O401" s="2">
         <v>39264</v>
       </c>
@@ -20121,7 +19829,7 @@
         <v>10.519943400000001</v>
       </c>
     </row>
-    <row r="402" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="402" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O402" s="2">
         <v>39295</v>
       </c>
@@ -20135,7 +19843,7 @@
         <v>10.5470056</v>
       </c>
     </row>
-    <row r="403" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="403" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O403" s="2">
         <v>39326</v>
       </c>
@@ -20149,7 +19857,7 @@
         <v>10.4019172</v>
       </c>
     </row>
-    <row r="404" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="404" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O404" s="2">
         <v>39356</v>
       </c>
@@ -20163,7 +19871,7 @@
         <v>10.483192000000001</v>
       </c>
     </row>
-    <row r="405" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="405" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O405" s="2">
         <v>39387</v>
       </c>
@@ -20177,7 +19885,7 @@
         <v>10.4783553</v>
       </c>
     </row>
-    <row r="406" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="406" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O406" s="2">
         <v>39417</v>
       </c>
@@ -20191,7 +19899,7 @@
         <v>10.3591625</v>
       </c>
     </row>
-    <row r="407" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="407" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O407" s="2">
         <v>39448</v>
       </c>
@@ -20205,7 +19913,7 @@
         <v>10.227547100000001</v>
       </c>
     </row>
-    <row r="408" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="408" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O408" s="2">
         <v>39479</v>
       </c>
@@ -20219,7 +19927,7 @@
         <v>9.8881157000000002</v>
       </c>
     </row>
-    <row r="409" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="409" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O409" s="2">
         <v>39508</v>
       </c>
@@ -20233,7 +19941,7 @@
         <v>9.9840795</v>
       </c>
     </row>
-    <row r="410" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="410" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O410" s="2">
         <v>39539</v>
       </c>
@@ -20247,7 +19955,7 @@
         <v>10.281682099999999</v>
       </c>
     </row>
-    <row r="411" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="411" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O411" s="2">
         <v>39569</v>
       </c>
@@ -20261,7 +19969,7 @@
         <v>10.2075777</v>
       </c>
     </row>
-    <row r="412" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="412" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O412" s="2">
         <v>39600</v>
       </c>
@@ -20275,7 +19983,7 @@
         <v>10.0461405</v>
       </c>
     </row>
-    <row r="413" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="413" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O413" s="2">
         <v>39630</v>
       </c>
@@ -20289,7 +19997,7 @@
         <v>10.0998293</v>
       </c>
     </row>
-    <row r="414" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="414" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O414" s="2">
         <v>39661</v>
       </c>
@@ -20303,7 +20011,7 @@
         <v>9.7357724999999995</v>
       </c>
     </row>
-    <row r="415" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="415" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O415" s="2">
         <v>39692</v>
       </c>
@@ -20317,7 +20025,7 @@
         <v>10.2406164</v>
       </c>
     </row>
-    <row r="416" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="416" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O416" s="2">
         <v>39722</v>
       </c>
@@ -20331,7 +20039,7 @@
         <v>10.526479</v>
       </c>
     </row>
-    <row r="417" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="417" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O417" s="2">
         <v>39753</v>
       </c>
@@ -20345,7 +20053,7 @@
         <v>10.7672706</v>
       </c>
     </row>
-    <row r="418" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="418" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O418" s="2">
         <v>39783</v>
       </c>
@@ -20359,7 +20067,7 @@
         <v>11.2492675</v>
       </c>
     </row>
-    <row r="419" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="419" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O419" s="2">
         <v>39814</v>
       </c>
@@ -20373,7 +20081,7 @@
         <v>11.8459837</v>
       </c>
     </row>
-    <row r="420" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="420" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O420" s="2">
         <v>39845</v>
       </c>
@@ -20387,7 +20095,7 @@
         <v>12.557142600000001</v>
       </c>
     </row>
-    <row r="421" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="421" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O421" s="2">
         <v>39873</v>
       </c>
@@ -20401,7 +20109,7 @@
         <v>13.059158500000001</v>
       </c>
     </row>
-    <row r="422" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="422" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O422" s="2">
         <v>39904</v>
       </c>
@@ -20415,7 +20123,7 @@
         <v>12.942410300000001</v>
       </c>
     </row>
-    <row r="423" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="423" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O423" s="2">
         <v>39934</v>
       </c>
@@ -20429,7 +20137,7 @@
         <v>13.458012399999999</v>
       </c>
     </row>
-    <row r="424" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="424" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O424" s="2">
         <v>39965</v>
       </c>
@@ -20443,7 +20151,7 @@
         <v>13.365249800000001</v>
       </c>
     </row>
-    <row r="425" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="425" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O425" s="2">
         <v>39995</v>
       </c>
@@ -20457,7 +20165,7 @@
         <v>13.234143899999999</v>
       </c>
     </row>
-    <row r="426" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="426" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O426" s="2">
         <v>40026</v>
       </c>
@@ -20471,7 +20179,7 @@
         <v>13.273132800000001</v>
       </c>
     </row>
-    <row r="427" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="427" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O427" s="2">
         <v>40057</v>
       </c>
@@ -20485,7 +20193,7 @@
         <v>13.258046</v>
       </c>
     </row>
-    <row r="428" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="428" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O428" s="2">
         <v>40087</v>
       </c>
@@ -20499,7 +20207,7 @@
         <v>13.1808044</v>
       </c>
     </row>
-    <row r="429" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="429" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O429" s="2">
         <v>40118</v>
       </c>
@@ -20513,7 +20221,7 @@
         <v>13.159274399999999</v>
       </c>
     </row>
-    <row r="430" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="430" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O430" s="2">
         <v>40148</v>
       </c>
@@ -20527,7 +20235,7 @@
         <v>13.032429499999999</v>
       </c>
     </row>
-    <row r="431" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="431" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O431" s="2">
         <v>40179</v>
       </c>
@@ -20541,7 +20249,7 @@
         <v>12.8128378</v>
       </c>
     </row>
-    <row r="432" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="432" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O432" s="2">
         <v>40210</v>
       </c>
@@ -20555,7 +20263,7 @@
         <v>12.7701292</v>
       </c>
     </row>
-    <row r="433" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="433" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O433" s="2">
         <v>40238</v>
       </c>
@@ -20569,7 +20277,7 @@
         <v>12.716647800000001</v>
       </c>
     </row>
-    <row r="434" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="434" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O434" s="2">
         <v>40269</v>
       </c>
@@ -20583,7 +20291,7 @@
         <v>12.606376300000001</v>
       </c>
     </row>
-    <row r="435" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="435" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O435" s="2">
         <v>40299</v>
       </c>
@@ -20597,7 +20305,7 @@
         <v>12.2163348</v>
       </c>
     </row>
-    <row r="436" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="436" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O436" s="2">
         <v>40330</v>
       </c>
@@ -20611,7 +20319,7 @@
         <v>12.177645500000001</v>
       </c>
     </row>
-    <row r="437" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="437" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O437" s="2">
         <v>40360</v>
       </c>
@@ -20625,7 +20333,7 @@
         <v>12.3597772</v>
       </c>
     </row>
-    <row r="438" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="438" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O438" s="2">
         <v>40391</v>
       </c>
@@ -20639,7 +20347,7 @@
         <v>12.220381400000001</v>
       </c>
     </row>
-    <row r="439" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="439" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O439" s="2">
         <v>40422</v>
       </c>
@@ -20653,7 +20361,7 @@
         <v>12.198126800000001</v>
       </c>
     </row>
-    <row r="440" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="440" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O440" s="2">
         <v>40452</v>
       </c>
@@ -20667,7 +20375,7 @@
         <v>12.337089300000001</v>
       </c>
     </row>
-    <row r="441" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="441" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O441" s="2">
         <v>40483</v>
       </c>
@@ -20681,7 +20389,7 @@
         <v>12.022190500000001</v>
       </c>
     </row>
-    <row r="442" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="442" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O442" s="2">
         <v>40513</v>
       </c>
@@ -20695,7 +20403,7 @@
         <v>11.832517299999999</v>
       </c>
     </row>
-    <row r="443" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="443" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O443" s="2">
         <v>40544</v>
       </c>
@@ -20709,7 +20417,7 @@
         <v>11.8455774</v>
       </c>
     </row>
-    <row r="444" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="444" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O444" s="2">
         <v>40575</v>
       </c>
@@ -20723,7 +20431,7 @@
         <v>11.8457987</v>
       </c>
     </row>
-    <row r="445" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="445" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O445" s="2">
         <v>40603</v>
       </c>
@@ -20737,7 +20445,7 @@
         <v>11.876215500000001</v>
       </c>
     </row>
-    <row r="446" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="446" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O446" s="2">
         <v>40634</v>
       </c>
@@ -20751,7 +20459,7 @@
         <v>11.982442300000001</v>
       </c>
     </row>
-    <row r="447" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="447" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O447" s="2">
         <v>40664</v>
       </c>
@@ -20765,7 +20473,7 @@
         <v>12.0792915</v>
       </c>
     </row>
-    <row r="448" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="448" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O448" s="2">
         <v>40695</v>
       </c>
@@ -20779,7 +20487,7 @@
         <v>11.898230699999999</v>
       </c>
     </row>
-    <row r="449" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="449" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O449" s="2">
         <v>40725</v>
       </c>
@@ -20793,7 +20501,7 @@
         <v>11.901949</v>
       </c>
     </row>
-    <row r="450" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="450" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O450" s="2">
         <v>40756</v>
       </c>
@@ -20807,7 +20515,7 @@
         <v>12.018020999999999</v>
       </c>
     </row>
-    <row r="451" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="451" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O451" s="2">
         <v>40787</v>
       </c>
@@ -20821,7 +20529,7 @@
         <v>12.050282599999999</v>
       </c>
     </row>
-    <row r="452" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="452" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O452" s="2">
         <v>40817</v>
       </c>
@@ -20835,7 +20543,7 @@
         <v>12.135320800000001</v>
       </c>
     </row>
-    <row r="453" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="453" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O453" s="2">
         <v>40848</v>
       </c>
@@ -20849,7 +20557,7 @@
         <v>12.296411000000001</v>
       </c>
     </row>
-    <row r="454" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="454" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O454" s="2">
         <v>40878</v>
       </c>
@@ -20863,7 +20571,7 @@
         <v>12.334151</v>
       </c>
     </row>
-    <row r="455" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="455" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O455" s="2">
         <v>40909</v>
       </c>
@@ -20877,7 +20585,7 @@
         <v>12.2065836</v>
       </c>
     </row>
-    <row r="456" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="456" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O456" s="2">
         <v>40940</v>
       </c>
@@ -20891,7 +20599,7 @@
         <v>12.457395399999999</v>
       </c>
     </row>
-    <row r="457" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="457" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O457" s="2">
         <v>40969</v>
       </c>
@@ -20905,7 +20613,7 @@
         <v>12.419381599999999</v>
       </c>
     </row>
-    <row r="458" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="458" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O458" s="2">
         <v>41000</v>
       </c>
@@ -20919,7 +20627,7 @@
         <v>12.2864874</v>
       </c>
     </row>
-    <row r="459" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="459" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O459" s="2">
         <v>41030</v>
       </c>
@@ -20933,7 +20641,7 @@
         <v>12.5497835</v>
       </c>
     </row>
-    <row r="460" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="460" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O460" s="2">
         <v>41061</v>
       </c>
@@ -20947,7 +20655,7 @@
         <v>12.3438877</v>
       </c>
     </row>
-    <row r="461" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="461" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O461" s="2">
         <v>41091</v>
       </c>
@@ -20961,7 +20669,7 @@
         <v>12.2404124</v>
       </c>
     </row>
-    <row r="462" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="462" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O462" s="2">
         <v>41122</v>
       </c>
@@ -20975,7 +20683,7 @@
         <v>12.0567001</v>
       </c>
     </row>
-    <row r="463" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="463" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O463" s="2">
         <v>41153</v>
       </c>
@@ -20989,7 +20697,7 @@
         <v>12.3209537</v>
       </c>
     </row>
-    <row r="464" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="464" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O464" s="2">
         <v>41183</v>
       </c>
@@ -21003,7 +20711,7 @@
         <v>12.4030264</v>
       </c>
     </row>
-    <row r="465" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="465" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O465" s="2">
         <v>41214</v>
       </c>
@@ -21017,7 +20725,7 @@
         <v>12.2981096</v>
       </c>
     </row>
-    <row r="466" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="466" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O466" s="2">
         <v>41244</v>
       </c>
@@ -21031,7 +20739,7 @@
         <v>12.461984599999999</v>
       </c>
     </row>
-    <row r="467" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="467" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O467" s="2">
         <v>41275</v>
       </c>
@@ -21045,7 +20753,7 @@
         <v>12.383616999999999</v>
       </c>
     </row>
-    <row r="468" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="468" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O468" s="2">
         <v>41306</v>
       </c>
@@ -21059,7 +20767,7 @@
         <v>12.465472399999999</v>
       </c>
     </row>
-    <row r="469" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="469" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O469" s="2">
         <v>41334</v>
       </c>
@@ -21073,7 +20781,7 @@
         <v>12.871552899999999</v>
       </c>
     </row>
-    <row r="470" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="470" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O470" s="2">
         <v>41365</v>
       </c>
@@ -21087,7 +20795,7 @@
         <v>12.7946212</v>
       </c>
     </row>
-    <row r="471" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="471" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O471" s="2">
         <v>41395</v>
       </c>
@@ -21101,7 +20809,7 @@
         <v>13.063703800000001</v>
       </c>
     </row>
-    <row r="472" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="472" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O472" s="2">
         <v>41426</v>
       </c>
@@ -21115,7 +20823,7 @@
         <v>13.237399999999999</v>
       </c>
     </row>
-    <row r="473" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="473" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O473" s="2">
         <v>41456</v>
       </c>
@@ -21129,7 +20837,7 @@
         <v>13.0133419</v>
       </c>
     </row>
-    <row r="474" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="474" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O474" s="2">
         <v>41487</v>
       </c>
@@ -21143,7 +20851,7 @@
         <v>13.403907999999999</v>
       </c>
     </row>
-    <row r="475" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="475" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O475" s="2">
         <v>41518</v>
       </c>
@@ -21157,7 +20865,7 @@
         <v>13.1382622</v>
       </c>
     </row>
-    <row r="476" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="476" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O476" s="2">
         <v>41548</v>
       </c>
@@ -21171,7 +20879,7 @@
         <v>13.3410066</v>
       </c>
     </row>
-    <row r="477" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="477" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O477" s="2">
         <v>41579</v>
       </c>
@@ -21185,7 +20893,7 @@
         <v>13.2686341</v>
       </c>
     </row>
-    <row r="478" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="478" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O478" s="2">
         <v>41609</v>
       </c>
@@ -21199,7 +20907,7 @@
         <v>13.4208946</v>
       </c>
     </row>
-    <row r="479" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="479" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O479" s="2">
         <v>41640</v>
       </c>
@@ -21213,7 +20921,7 @@
         <v>13.2874946</v>
       </c>
     </row>
-    <row r="480" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="480" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O480" s="2">
         <v>41671</v>
       </c>
@@ -21227,7 +20935,7 @@
         <v>13.4018259</v>
       </c>
     </row>
-    <row r="481" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="481" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O481" s="2">
         <v>41699</v>
       </c>
@@ -21241,7 +20949,7 @@
         <v>13.415343500000001</v>
       </c>
     </row>
-    <row r="482" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="482" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O482" s="2">
         <v>41730</v>
       </c>
@@ -21255,7 +20963,7 @@
         <v>13.4527736</v>
       </c>
     </row>
-    <row r="483" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="483" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O483" s="2">
         <v>41760</v>
       </c>
@@ -21269,7 +20977,7 @@
         <v>13.686783500000001</v>
       </c>
     </row>
-    <row r="484" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="484" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O484" s="2">
         <v>41791</v>
       </c>
@@ -21283,7 +20991,7 @@
         <v>13.965931899999999</v>
       </c>
     </row>
-    <row r="485" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="485" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O485" s="2">
         <v>41821</v>
       </c>
@@ -21297,7 +21005,7 @@
         <v>14.4566702</v>
       </c>
     </row>
-    <row r="486" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="486" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O486" s="2">
         <v>41852</v>
       </c>
@@ -21311,7 +21019,7 @@
         <v>14.4844475</v>
       </c>
     </row>
-    <row r="487" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="487" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O487" s="2">
         <v>41883</v>
       </c>
@@ -21325,7 +21033,7 @@
         <v>15.0574254</v>
       </c>
     </row>
-    <row r="488" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="488" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O488" s="2">
         <v>41913</v>
       </c>
@@ -21339,7 +21047,7 @@
         <v>14.567616299999999</v>
       </c>
     </row>
-    <row r="489" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="489" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O489" s="2">
         <v>41944</v>
       </c>
@@ -21353,7 +21061,7 @@
         <v>14.9512024</v>
       </c>
     </row>
-    <row r="490" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="490" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O490" s="2">
         <v>41974</v>
       </c>
@@ -21367,7 +21075,7 @@
         <v>14.562871899999999</v>
       </c>
     </row>
-    <row r="491" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="491" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O491" s="2">
         <v>42005</v>
       </c>
@@ -21381,7 +21089,7 @@
         <v>14.8844838</v>
       </c>
     </row>
-    <row r="492" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="492" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O492" s="2">
         <v>42036</v>
       </c>
@@ -21395,7 +21103,7 @@
         <v>14.6852284</v>
       </c>
     </row>
-    <row r="493" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="493" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O493" s="2">
         <v>42064</v>
       </c>
@@ -21409,7 +21117,7 @@
         <v>14.264618799999999</v>
       </c>
     </row>
-    <row r="494" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="494" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O494" s="2">
         <v>42095</v>
       </c>
@@ -21423,7 +21131,7 @@
         <v>14.428781900000001</v>
       </c>
     </row>
-    <row r="495" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="495" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O495" s="2">
         <v>42125</v>
       </c>
@@ -21437,7 +21145,7 @@
         <v>14.303064900000001</v>
       </c>
     </row>
-    <row r="496" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="496" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O496" s="2">
         <v>42156</v>
       </c>
@@ -21451,7 +21159,7 @@
         <v>14.3761545</v>
       </c>
     </row>
-    <row r="497" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="497" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O497" s="2">
         <v>42186</v>
       </c>
@@ -21465,7 +21173,7 @@
         <v>14.887599</v>
       </c>
     </row>
-    <row r="498" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="498" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O498" s="2">
         <v>42217</v>
       </c>
@@ -21479,7 +21187,7 @@
         <v>14.5186048</v>
       </c>
     </row>
-    <row r="499" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="499" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O499" s="2">
         <v>42248</v>
       </c>
@@ -21493,7 +21201,7 @@
         <v>14.947759400000001</v>
       </c>
     </row>
-    <row r="500" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="500" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O500" s="2">
         <v>42278</v>
       </c>
@@ -21507,7 +21215,7 @@
         <v>14.6325544</v>
       </c>
     </row>
-    <row r="501" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="501" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O501" s="2">
         <v>42309</v>
       </c>
@@ -21521,7 +21229,7 @@
         <v>14.4442749</v>
       </c>
     </row>
-    <row r="502" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="502" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O502" s="2">
         <v>42339</v>
       </c>
@@ -21535,7 +21243,7 @@
         <v>14.215536699999999</v>
       </c>
     </row>
-    <row r="503" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="503" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O503" s="2">
         <v>42370</v>
       </c>
@@ -21549,7 +21257,7 @@
         <v>14.578405099999999</v>
       </c>
     </row>
-    <row r="504" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="504" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O504" s="2">
         <v>42401</v>
       </c>
@@ -21563,7 +21271,7 @@
         <v>14.089410600000001</v>
       </c>
     </row>
-    <row r="505" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="505" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O505" s="2">
         <v>42430</v>
       </c>
@@ -21577,7 +21285,7 @@
         <v>14.061222799999999</v>
       </c>
     </row>
-    <row r="506" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="506" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O506" s="2">
         <v>42461</v>
       </c>
@@ -21591,7 +21299,7 @@
         <v>14.255952499999999</v>
       </c>
     </row>
-    <row r="507" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="507" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O507" s="2">
         <v>42491</v>
       </c>
@@ -21605,7 +21313,7 @@
         <v>14.0149627</v>
       </c>
     </row>
-    <row r="508" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="508" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O508" s="2">
         <v>42522</v>
       </c>
@@ -21619,7 +21327,7 @@
         <v>14.445672999999999</v>
       </c>
     </row>
-    <row r="509" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="509" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O509" s="2">
         <v>42552</v>
       </c>
@@ -21633,7 +21341,7 @@
         <v>14.6857758</v>
       </c>
     </row>
-    <row r="510" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="510" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O510" s="2">
         <v>42583</v>
       </c>
@@ -21647,7 +21355,7 @@
         <v>14.404002999999999</v>
       </c>
     </row>
-    <row r="511" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="511" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O511" s="2">
         <v>42614</v>
       </c>
@@ -21661,7 +21369,7 @@
         <v>14.358347999999999</v>
       </c>
     </row>
-    <row r="512" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="512" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O512" s="2">
         <v>42644</v>
       </c>
@@ -21675,7 +21383,7 @@
         <v>14.1250936</v>
       </c>
     </row>
-    <row r="513" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="513" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O513" s="2">
         <v>42675</v>
       </c>
@@ -21689,7 +21397,7 @@
         <v>14.280117499999999</v>
       </c>
     </row>
-    <row r="514" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="514" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O514" s="2">
         <v>42705</v>
       </c>
@@ -21703,7 +21411,7 @@
         <v>14.453455099999999</v>
       </c>
     </row>
-    <row r="515" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="515" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O515" s="2">
         <v>42736</v>
       </c>
@@ -21717,7 +21425,7 @@
         <v>14.521887599999999</v>
       </c>
     </row>
-    <row r="516" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="516" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O516" s="2">
         <v>42767</v>
       </c>
@@ -21731,7 +21439,7 @@
         <v>14.9303446</v>
       </c>
     </row>
-    <row r="517" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="517" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O517" s="2">
         <v>42795</v>
       </c>
@@ -21745,7 +21453,7 @@
         <v>14.493815100000001</v>
       </c>
     </row>
-    <row r="518" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="518" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O518" s="2">
         <v>42826</v>
       </c>
@@ -21759,7 +21467,7 @@
         <v>14.3595282</v>
       </c>
     </row>
-    <row r="519" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="519" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O519" s="2">
         <v>42856</v>
       </c>
@@ -21773,7 +21481,7 @@
         <v>14.1737047</v>
       </c>
     </row>
-    <row r="520" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="520" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O520" s="2">
         <v>42887</v>
       </c>
@@ -21787,7 +21495,7 @@
         <v>13.9843134</v>
       </c>
     </row>
-    <row r="521" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="521" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O521" s="2">
         <v>42917</v>
       </c>
@@ -21801,7 +21509,7 @@
         <v>14.107994100000001</v>
       </c>
     </row>
-    <row r="522" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="522" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O522" s="2">
         <v>42948</v>
       </c>
@@ -21815,7 +21523,7 @@
         <v>14.101337300000001</v>
       </c>
     </row>
-    <row r="523" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="523" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O523" s="2">
         <v>42979</v>
       </c>
@@ -21829,7 +21537,7 @@
         <v>13.977517000000001</v>
       </c>
     </row>
-    <row r="524" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="524" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O524" s="2">
         <v>43009</v>
       </c>
@@ -21843,7 +21551,7 @@
         <v>13.874888</v>
       </c>
     </row>
-    <row r="525" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="525" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O525" s="2">
         <v>43040</v>
       </c>
@@ -21857,7 +21565,7 @@
         <v>13.9499324</v>
       </c>
     </row>
-    <row r="526" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="526" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O526" s="2">
         <v>43070</v>
       </c>
@@ -21871,7 +21579,7 @@
         <v>14.0908582</v>
       </c>
     </row>
-    <row r="527" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="527" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O527" s="2">
         <v>43101</v>
       </c>
@@ -21885,7 +21593,7 @@
         <v>14.314204</v>
       </c>
     </row>
-    <row r="528" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="528" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O528" s="2">
         <v>43132</v>
       </c>
@@ -21899,7 +21607,7 @@
         <v>14.124694099999999</v>
       </c>
     </row>
-    <row r="529" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="529" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O529" s="2">
         <v>43160</v>
       </c>
@@ -21913,7 +21621,7 @@
         <v>14.1382812</v>
       </c>
     </row>
-    <row r="530" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="530" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O530" s="2">
         <v>43191</v>
       </c>
@@ -21927,7 +21635,7 @@
         <v>13.9825511</v>
       </c>
     </row>
-    <row r="531" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="531" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O531" s="2">
         <v>43221</v>
       </c>
@@ -21941,7 +21649,7 @@
         <v>13.755255500000001</v>
       </c>
     </row>
-    <row r="532" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="532" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O532" s="2">
         <v>43252</v>
       </c>
@@ -21955,7 +21663,7 @@
         <v>13.8513155</v>
       </c>
     </row>
-    <row r="533" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="533" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O533" s="2">
         <v>43282</v>
       </c>
@@ -21969,7 +21677,7 @@
         <v>13.7420826</v>
       </c>
     </row>
-    <row r="534" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="534" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O534" s="2">
         <v>43313</v>
       </c>
@@ -21983,7 +21691,7 @@
         <v>13.4487457</v>
       </c>
     </row>
-    <row r="535" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="535" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O535" s="2">
         <v>43344</v>
       </c>
@@ -21997,7 +21705,7 @@
         <v>13.307786999999999</v>
       </c>
     </row>
-    <row r="536" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="536" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O536" s="2">
         <v>43374</v>
       </c>
@@ -22011,7 +21719,7 @@
         <v>13.2899253</v>
       </c>
     </row>
-    <row r="537" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="537" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O537" s="2">
         <v>43405</v>
       </c>
@@ -22025,7 +21733,7 @@
         <v>13.626817900000001</v>
       </c>
     </row>
-    <row r="538" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="538" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O538" s="2">
         <v>43435</v>
       </c>
@@ -22039,7 +21747,7 @@
         <v>13.3275956</v>
       </c>
     </row>
-    <row r="539" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="539" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O539" s="2">
         <v>43466</v>
       </c>
@@ -22053,7 +21761,7 @@
         <v>13.271906100000001</v>
       </c>
     </row>
-    <row r="540" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="540" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O540" s="2">
         <v>43497</v>
       </c>
@@ -22067,7 +21775,7 @@
         <v>13.0693456</v>
       </c>
     </row>
-    <row r="541" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="541" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O541" s="2">
         <v>43525</v>
       </c>
@@ -22081,7 +21789,7 @@
         <v>13.3756936</v>
       </c>
     </row>
-    <row r="542" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="542" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O542" s="2">
         <v>43556</v>
       </c>
@@ -22095,7 +21803,7 @@
         <v>13.680366599999999</v>
       </c>
     </row>
-    <row r="543" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="543" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O543" s="2">
         <v>43586</v>
       </c>
@@ -22109,7 +21817,7 @@
         <v>13.684205499999999</v>
       </c>
     </row>
-    <row r="544" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="544" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O544" s="2">
         <v>43617</v>
       </c>
@@ -22123,7 +21831,7 @@
         <v>13.3736368</v>
       </c>
     </row>
-    <row r="545" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="545" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O545" s="2">
         <v>43647</v>
       </c>
@@ -22137,7 +21845,7 @@
         <v>13.665490200000001</v>
       </c>
     </row>
-    <row r="546" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="546" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O546" s="2">
         <v>43678</v>
       </c>
@@ -22151,7 +21859,7 @@
         <v>13.778776199999999</v>
       </c>
     </row>
-    <row r="547" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="547" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O547" s="2">
         <v>43709</v>
       </c>
@@ -22165,7 +21873,7 @@
         <v>13.5158027</v>
       </c>
     </row>
-    <row r="548" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="548" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O548" s="2">
         <v>43739</v>
       </c>
@@ -22179,7 +21887,7 @@
         <v>13.8270689</v>
       </c>
     </row>
-    <row r="549" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="549" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O549" s="2">
         <v>43770</v>
       </c>
@@ -22193,7 +21901,7 @@
         <v>13.4543468</v>
       </c>
     </row>
-    <row r="550" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="550" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O550" s="2">
         <v>43800</v>
       </c>
@@ -22207,7 +21915,7 @@
         <v>13.2842187</v>
       </c>
     </row>
-    <row r="551" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="551" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O551" s="2">
         <v>43831</v>
       </c>
@@ -22221,7 +21929,7 @@
         <v>13.9765748</v>
       </c>
     </row>
-    <row r="552" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="552" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O552" s="2">
         <v>43862</v>
       </c>
@@ -22235,7 +21943,7 @@
         <v>13.732590999999999</v>
       </c>
     </row>
-    <row r="553" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="553" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O553" s="2">
         <v>43891</v>
       </c>
@@ -22249,7 +21957,7 @@
         <v>14.0612181</v>
       </c>
     </row>
-    <row r="554" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="554" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O554" s="2">
         <v>43922</v>
       </c>
@@ -22263,7 +21971,7 @@
         <v>20.017182999999999</v>
       </c>
     </row>
-    <row r="555" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="555" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O555" s="2">
         <v>43952</v>
       </c>
@@ -22277,7 +21985,7 @@
         <v>19.978747599999998</v>
       </c>
     </row>
-    <row r="556" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="556" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O556" s="2">
         <v>43983</v>
       </c>
@@ -22291,7 +21999,7 @@
         <v>19.003228199999999</v>
       </c>
     </row>
-    <row r="557" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="557" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O557" s="2">
         <v>44013</v>
       </c>
@@ -22305,7 +22013,7 @@
         <v>18.717067199999999</v>
       </c>
     </row>
-    <row r="558" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="558" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O558" s="2">
         <v>44044</v>
       </c>
@@ -22319,7 +22027,7 @@
         <v>18.060162500000001</v>
       </c>
     </row>
-    <row r="559" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="559" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O559" s="2">
         <v>44075</v>
       </c>
@@ -22333,7 +22041,7 @@
         <v>18.2731472</v>
       </c>
     </row>
-    <row r="560" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="560" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O560" s="2">
         <v>44105</v>
       </c>
@@ -22347,7 +22055,7 @@
         <v>17.376907200000002</v>
       </c>
     </row>
-    <row r="561" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="561" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O561" s="2">
         <v>44136</v>
       </c>
@@ -22361,7 +22069,7 @@
         <v>16.185237099999998</v>
       </c>
     </row>
-    <row r="562" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="562" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O562" s="2">
         <v>44166</v>
       </c>
@@ -22375,7 +22083,7 @@
         <v>15.117262</v>
       </c>
     </row>
-    <row r="563" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="563" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O563" s="2">
         <v>44197</v>
       </c>
@@ -22389,7 +22097,7 @@
         <v>14.676671499999999</v>
       </c>
     </row>
-    <row r="564" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="564" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O564" s="2">
         <v>44228</v>
       </c>
@@ -22403,7 +22111,7 @@
         <v>14.2921923</v>
       </c>
     </row>
-    <row r="565" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="565" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O565" s="2">
         <v>44256</v>
       </c>
@@ -22417,7 +22125,7 @@
         <v>13.6481017</v>
       </c>
     </row>
-    <row r="566" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="566" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O566" s="2">
         <v>44287</v>
       </c>
@@ -22431,7 +22139,7 @@
         <v>13.249682</v>
       </c>
     </row>
-    <row r="567" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="567" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O567" s="2">
         <v>44317</v>
       </c>
@@ -22445,7 +22153,7 @@
         <v>12.5063481</v>
       </c>
     </row>
-    <row r="568" spans="15:18" ht="16.350000000000001" x14ac:dyDescent="0.6">
+    <row r="568" spans="15:18" x14ac:dyDescent="0.6">
       <c r="O568" s="2">
         <v>44348</v>
       </c>
